--- a/RN三方库.xlsx
+++ b/RN三方库.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>三方库名称</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>react-native-fast-image</t>
+  </si>
+  <si>
+    <t>ratxxx-sfa</t>
   </si>
 </sst>
 </file>
@@ -968,13 +971,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="23.7777777777778" customWidth="1"/>
   </cols>
@@ -992,6 +995,11 @@
     <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
